--- a/이주복/programmers_end.xlsx
+++ b/이주복/programmers_end.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" t="n">
         <v>2020</v>
@@ -3050,6 +3050,1344 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>인그래디언트</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>시스템ㆍ응용 소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>25621</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>서울특별시 서초구</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>서버/백엔드, 프론트엔드, 개발PM</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>TypeScript
+ReactJS
+Storybook
+Node.js
+MySQL
+TypeORM
+REST API
+Docker
+Python
+CI/CD
+Selenium
+GitHub
+AWS CloudFront
+AWS S3
+AWS EC2
+AWS ElasticBeanstalk
+AWS Route 53
+AWS RDS
+AWS Lambda
+AWS Certificate Manager
+Kubernetes</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>웹(앱) 개발 경력 7년 이상(개발팀 리더 경력 2년 이상 포함) 또는 그에 준하는 역량을 갖추신 분
+Typescript, React 및 한 가지 이상의 Backend 기술 개발과 DB 성능 튜닝 경험이 있으신 분
+요구사항을 파악하여 데이터 모델과 시스템을 설계한 경험이 있으신 분
+프로젝트 초기 구축부터 배포까지의 A-Z 경험이 있으신 분
+문제 해결 관점의 접근 방식에 능숙하고 분석적이며 논리적 사고를 즐기시는 분</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>7</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>영어 소통이 가능하신 분
+AI 관련 스타트업에서 개발팀을 리드해본 경험이 있으신 분
+RDBMS를 이용한 개발 또는 운영 경험이 있으신 분
+컴퓨터공학 또는 AI 관련 전공 혹은 그에 준하는 전공 및 지식 보유자
+대용량 트래픽 처리를 경험해본 적이 있으신 분
+실시간 데이터 처리/분석 경험이 있으신 분
+애자일 관련 개발 방법론에 대한 경험이 있으신 분
+클라우드 환경에서 일한 경험이 있으신 분
+B2B 상용 서비스 플랫폼을 개발 경험이 있는 분</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>https://career.programmers.co.kr/job_positions/16973</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>https://www.ingradient.ai/kr/index.php</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>티웨이브</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>도매·상품중개</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>21</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>중소기업</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>207100</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>서울특별시 강남구</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>서버/백엔드, 웹 풀스택</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Java
+Jenkins
+MySQL
+Spring Boot
+Spring Data JPA
+MyBatis
+GitLab
+AWS EC2</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Java 개발 경력 7년 이상 경험 or 실력을 보유 하신 분(필수)
+Spring기반 프레임워크를 활용하여 웹 애플리케이션 개발 경험 있으신 분
+REST API 설계, 개발 경험 있으신 분
+RDBMS(MySQL등) 경험이 있으신 분
+비즈니스 요구사항에 맞는 아키텍쳐 및 DB 설계 가능하신 분
+TDD/리팩토링 경험 및 개발 역량을 보유하신 분
+* 기술스택 확인  : https://www.codenary.co.kr/company/detail/14580 참고</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>7</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>금융/핀테크/커머스 시스템 개발 경험이 있으신 분
+클라우드 기반 서비스 개발 및 운영 경험 있으신 분
+지속적인 시스템 개선에 대한 경험 있으신 분
+MSA 관련 설계, 개발 경험 있으신 분
+대용량 트래픽을 처리하는 시스템을 개발/운영 해 본 경험 있으신 분
+장애 상황에서도 긴장하지 않고 빠르게 원인 분석 및 해결할 수 있으신 분
+동료들과 코드 리뷰 하는데 거부감이 없으신 분
+티웨이브가 찾고 있는 개발자는?
+소프트웨어 품질에 대해 고민하시고, 기술부채를 해결하고자 애쓰시는 분
+동료들과 원활한 커뮤니케이션이 가능하신 분
+서비스에 가장 적합한 기술을 찾고 제안하시는 분
+회사 성장 뿐만 아니라 본인 성장을 위해 노력하시는 분</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>https://career.programmers.co.kr/job_positions/16143</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>https://www.twave.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>와이오엘오</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>인터넷·포털·컨텐츠·게임</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>37</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2017</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>중소기업</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>239792</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>서울특별시 마포구</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>서버/백엔드, 웹 풀스택</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>AWS EC2
+MongoDB
+TypeScript
+Node.js
+NestJS
+Git
+Java</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Git으로 협업하는데 어려움이 없으신 분
+불필요한 트래픽을 줄여 서버 부하를 줄여본 경험이 있으신 분
+서비스 관련 전체 로그 처리에 관한 업무를 경험해보신 분
+NoSQL 사용에 익숙하신분
+서버 보안 관련 업무 경험이 있으신 분
+간편 결제 페이 개발 관련 업무를 경험해보신 분</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Node.js, MongoDB, AWS등 서버 경험이 있으신 분
+보안관련 이슈를 해결해본 경험이 있으신 분
+코드 아키텍쳐를 통해 팀원과 원할한 문화를 만드신 경험이 있으신 분
+JS → TS 마이그레이션 경험이 있으신 분</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>https://career.programmers.co.kr/job_positions/14256</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>https://www.yolocorp.kr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>포스페이스랩</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>시스템ㆍ응용 소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>19</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2019</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>중소기업</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>510</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>서울특별시 강남구</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>서버/백엔드, 시스템/네트워크, 데브옵스</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Docker
+Git
+MySQL
+Node.js
+Redis
+AWS CloudFront
+AWS EC2
+AWS RDS
+AWS S3
+AWS ElasticBeanstalk
+AWS Lambda
+AWS CodePipeline</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Python, Java, Node.js 등을 사용한 5년 이상의 개발 경력 또는 그에 준하는 실력
+고가용, 확장 가능한 시스템 아키텍쳐 설계 및 개발 능력
+AWS, GCP 등 클라우드 서비스 사용 경험
+업무 시 필요한 마음가짐
+PM, Data Engineer, Data Analyst와 적극적인 협업
+본인의 의사를 적극적으로 표현 (화내면 안돼요..)
+상대방을 배려하는 언행
+본인이 맡은 업무는 책임질 줄 아는 자세
+새로운 기술에 대한 적극적이고 열린 자세
+Pair Programming/Code Review에 긍정적 자세
+주도적으로 서비스 개발하는 자세</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>5</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>컨테이너 기반 서비스 개발 및 운영 경험
+데이터베이스(RDBMS 또는 NoSQL,NewSQL)에 대한 이해
+대용량 분산 인프라 설계, 운영 경험(Kafka, CDC등)
+데이터 시각화 도구(Tableau, Kibana, PowerBI, 자체 제작한 시각화) 연동 경험
+Serverless 기반의 서버 구현 경험</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>https://career.programmers.co.kr/job_positions/12988</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>https://forspacelab.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>아레나캐스트</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>소프트웨어·솔루션·ASP</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2010</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>중소기업</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>987716</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>서울특별시 성동구</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>서버/백엔드, 웹 풀스택, 게임 서버</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Java
+MySQL
+Spring
+Node.js
+JavaScript
+Amazon Web Services(AWS)
+AWS EC2
+MariaDB</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>• 3년 이상 관련 실무경험
+• Git 등 버전관리 시스템 사용 경험
+• 기술 트렌드와 신규 기술 습득에 열정이 있으신 분
+• SpringBoot 사용 경험
+• Rest API 개발 경험
+• Java 개발 경험
+• SQL(MySQL), NoSQL 사용 경험 및 관련 지식
+• Linux 기반 서버 사용 경험</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>3</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>• 프로그래밍 관련 학과 전공자
+• api 설계와 비즈니스 로직 개발 경험자
+• 프로그래밍 관련 학과 전공자
+• AWS, Azure 등 클라우드 서비스 사용 경험
+• JPA, QueryDSL 등 ORM 활용 경험
+• Socket을 이용한 개발 경험
+• CI, CD 환경 경험</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>https://career.programmers.co.kr/job_positions/4328</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>https://www.arenacast.io/</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>컨비니언스</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>도매·상품중개</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>36</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>중소기업</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1479362</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>서울특별시 마포구</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>프론트엔드, 웹 풀스택</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>JavaScript
+ReactJS
+ES6
+jQuery
+AWS EC2
+AWS S3
+Next.js
+TypeScript</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>React/Next.js, Typescript 를 활용한 프론트엔드 개발 경험이 있으신 분
+React Hook에 대한 이해 및 개발 경험이 있으신 분
+Git 사용에 불편함이 없으신 분
+바른생각이 추구하는 가치에 깊이 공감하고, 이를 기반으로 섹슈얼 라이프스타일 시장에 혁신을 만들어보고 싶으신 분</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>3</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>웹 서비스 운영 경험이 있으신 분
+합리적인 사고를 기반으로 최선의 선택을 하시는, 또는 하려고 노력하시는 분
+새로운 기술에 관심과 호기심이 많으신 분</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>https://career.programmers.co.kr/job_positions/4674</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>https://cvkorea.co.kr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>쿤텍</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>소프트웨어·솔루션·ASP</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>81</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>중소기업</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>823250</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>경기도 성남시 수정구</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>인공지능(AI), 데이터 엔지니어링, 데브옵스</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>SQL
+Python
+Apache Spark
+Java
+Microsoft Azure
+AWS EC2</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>- 컴퓨터 사이언스, 공학, 수학 또는 관련 분야의 학사 학위 또는 이와 유사한 수준의 경험
+- 최소 하나 이상의 SQL 기술(Hive, Pig, Impala, Spark SQL, Presto, Postgre SQL)에 대한 지식
+- 최소 하나 이상의 프로그래밍 언어(Java, JavaScript, Python 등)로 소프트웨어 코드를 개발한 경험 구현 업무 실무 수행 가능
+- 최소 하나 이상의 programming language (백엔드 위주 개발 경력 필요)
+- 최소 하나 이상의 클라우드 사용 경험</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>- Data Warehouse 설계, BI보고서 및 대시 보드 개발을 포함한 업계의 데이터베이스, 분석 기술에 대한 이해
+- ETL 파이프라인을 통해 BI 시각화를 위한 툴(Tableau, MS Power BI 등)에 리포팅해본 경험
+- SQL을 사용한 Raw Data핸들링 역량
+- 다양한 로그 데이터 운영 경험
+- Hadoop, Spark, Kafka 등의 데이터플랫폼 관련 경험
+- AWS, GCP, Azure와 같은 클라우드 서비스 위에서의 개발 경험
+- 웹 프론트엔드/백엔드 개발 경력
+- Spring, Flask, Django, Laravel 등 Web Framework를 이용한 개발 경험</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>https://career.programmers.co.kr/job_positions/10895</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>https://coontec.kr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>쿤텍</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>소프트웨어·솔루션·ASP</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>81</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>중소기업</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>823250</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>경기도 성남시 수정구</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>인공지능(AI), 데이터 엔지니어링, 데브옵스</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Python
+R
+Azure
+Machine Learning
+GCP(Google Cloud Platform)
+AWS EC2
+AWS S3
+AWS Lambda</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>컴퓨터공학, 데이터 , AI, 수학/통계학 등 전산계열 전공자
+개발 경험</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>통계적 기법을 통한 데이터 분석 역량
+R/Python 프로그래밍 및 기본적인 쿼리 작성 능력
+AWS, Azure 등 클라우드 환경에 대한 이해
+쿠버네티스 및 도커에 대한 기술 역량
+데이터 분석 관련 자격 보유
+빅데이터 분석 프로젝트 유경험자 (데이터 분석 파이프라인 구축 유경험자)
+Dataiku,Data Robot, H2O, TensorFlow 등 사용 경험자
+Tableau, MS Power BI 등 BI 사용 경험자
+Snowflake 등 data warehouse, data lake 사용 경험자
+인근거주자, 해당직무 근무경험, 문서작성 우수자</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>https://career.programmers.co.kr/job_positions/10007</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>https://coontec.kr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>누벤트</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>모바일·무선</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>18</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>19745</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>서울특별시 강남구</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>서버/백엔드, 데이터 엔지니어링, 시스템/네트워크</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Python
+MySQL
+AWS EC2
+Linux
+Redis
+FastAPI</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>- python 기반 서비스 경험
+- 하나 이상의 RDBMS, NoSQL 사용 경험
+- AWS 인프라 사용 및 구축 경험
+- 3년 이상의 관련 기술 개발 경험</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>3</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>- 데이터&amp;SaaS 서비스 개발 경험
+- API 연동 개발 경험
+- 정규표현식을 활용한 데이터 처리 경험</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>https://career.programmers.co.kr/job_positions/12593</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>https://www.attracker.shop/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>셀러허브</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>전자상거래 소매 중개업</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>50</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2012</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>중소기업</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1200313</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>서울특별시 강남구</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>서버/백엔드, 웹 풀스택, 데브옵스</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PHP
+Redis
+MySQL
+JavaScript
+Git
+Docker
+AWS EC2
+AWS ElastiCache
+AWS S3
+AWS RDS
+AWS Lambda</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>백엔드 개발경험 3년이상 또는 그에 준하는 경험이 있는 분
+함께 협업하는 사람들과 논리적으로 의사소통 할 수 있는 분
+다양한 프로젝트에 대한 자원 배분 및 시간을 관리할 수 있는 분
+장기적인 관점으로 확장성 있고 유연한 설계와 코드 품질에 대해 고민하는 분
+RDBMS,Front-End 등 인접기술에 대한 이해가 있으신 분</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>개발을 진정 좋아하며, 본인이 맡은 기술적 챌린지를 해결해 나가는 것을 진정으로 즐기는 자세
+온라인 이커머스 환경에 대한 높은 이해도 및 관련 개발 경험
+PHP framework (Laravel, Codeigniter, Phalcon, etc)을 사용해본 경험
+디자인 패턴 (Factory, Singleton, Strategy 등) 를 활용하여 서비스를 적용해본 경험
+자료구조 (스택, 큐, 선형구조 등)에 대한 이해도
+AWS (EC2, S3, SNS, Lambda 등)을 활용한 개발 경험
+형상관리 경험 (Git,SVN,Mercurial) 이 있으신 분</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>https://career.programmers.co.kr/job_positions/12652</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>http://www.sellerhub.co.kr</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>아이트럭</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>물류</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>18</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>중소기업</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>510000</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>서울특별시 서초구</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>서버/백엔드</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Node.js
+TypeScript
+REST API
+ExpressJS
+MySQL
+Sequelize.js
+AWS EC2
+AWS RDS
+AWS S3</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>이런 분을 환영합니다! 🙂
+Node.js 숙련자 및 웹 서비스 이해가 있으신 분
+TypeScript 기반 서버개발 및 운영 경험이 있으신 분
+RESTful API 이해가 높은신 분
+상용 서비스 및 제품 개발에 참여해 본 경험이 있으신 분
+다양한 UI 개발 경험과 사용자 경험에 대한 깊이 있는 이해도를 보유하신 분
+논리적이고 체계적인 문제해결 능력이 있으신 분
+효과적인 의사전달 및 협업 능력이 있으신 분</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>이런 분은 더욱 환영합니다! 😀
+새로운 기술 습득과 지식 공유에 즐거움을 느끼시는 분
+코드 개선 및 코드 리뷰에 적극 참여하시는 분
+웹 서비스 성능 개선 경험 및 노하우가 있으신 분
+DevOps(AWS/Azure/GCP) 개발 경험이 있으신 분
+CI/CD 에 기반한 빌드/테스트/배포 자동화 환경 구성
+Git을 통한 형상관리 경험이 있으신 분
+우리는 이런 기술을 사용합니다! 🖥️
+Node.js - Express
+MySQL, Sequelize.js
+AWS EC2, EBS, RDS, S3</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>https://career.programmers.co.kr/job_positions/12194</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>https://www.itruck.co.kr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>컨워스</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>그 외 기타 정보 서비스업</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>9</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>서울특별시 서대문구</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>로보틱스 미들웨어, 사물인터넷(IoT), 응용 프로그램</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Python
+Docker
+AWS EC2
+WebSocket
+WebRTC</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>영어로 된 문서에 대해 검색 및 독해가 익숙하신 분
+로보틱스/컴퓨터/전자공학 등 관련 분야 학사 이상 학위
+python 등의 언어 활용 능력 및 C++ binding으로 활용 가능하신 분
+Web Socket, WebRTC 등의 네트워크 통신에 이해가 있으신 분</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>OpenCV 개발 관련 실무 경험이 있으신 분
+RTMP, RTSP, RTP 등과 같은 프로토콜을 사용한 실무 경험이 있으신 분
+실시간으로 영상을 스트리밍하는 실무 경험이 있으신 분
+NoSQL DB를 사용한 실무 경험이 있으신 분
+ReactJS를 사용한 웹 페이지 구축 실무 경험이 있으신 분</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>https://career.programmers.co.kr/job_positions/11412</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>http://conworth.io</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>팀블랙버드</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>시스템ㆍ응용 소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>22</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>중소기업</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>158941</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>서울특별시 영등포구</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>데브옵스</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>AWS EC2
+AWS S3
+AWS RDS
+Python
+Git
+PostgreSQL</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>- AWS 혹은 그에 준하는 클라우드 서비스를 운영해보신 경험이 있으신 분
+- 백엔드 인프라의 모니터링 서비스를 구축 혹은 운영해보신 경험이 있으신 분
+- CI/CD, 코드 컨벤션 등 팀 내 컨벤션을 구축해보신 경험이 있으신 분</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>3</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>- Cloud hosting service(especially AWS)를 깊이 사용하고 관리해보신 분
+- Terraform 등의 Infrastructure as code 관련 툴 사용 경험이 있으신 분
+- 투자, 암호화폐, 금융 분야에 대한 관심이 있으신 분</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>https://career.programmers.co.kr/job_positions/10977</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>https://cryptoquant.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>팀블랙버드</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>시스템ㆍ응용 소프트웨어 개발 및 공급업</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>22</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>중소기업</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>158941</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>서울특별시 영등포구</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>서버/백엔드, 데이터 엔지니어링, 블록체인</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Python
+SQL
+REST API
+Git
+AWS EC2
+AWS RDS
+AWS ElasticBeanstalk</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>그래서, 아래 기준에 잘 맞는 분을 찾습니다
+Hard Skills
+RDB or NoSQL, 데이터베이스에 대한 경험이 있으신 분
+RESTful API 및 SQL 혹은 NoSQL 기반의 데이터 모델링 경험이 있으신 분
+프로덕션 환경에서 파이썬(Python) 프로그래밍 및 스크립팅 개발 경험이 있으신 분
+Version Control System(especially Git)을 통해 협업을 해본 경험이 있으신 분
+웹 프레임워크(e.g. Flask, Django)의 기본적인 지식 혹인 사용한 경험이 있으신 분
+Soft Skills
+스스로 동기를 부여하며(self-motivated) 일의 완성도, 개선점을 고민하시는 분
+어떤 상황이 와도 업무의 마감 기한을 지키시는 책임감이 있으신 분</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>2</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>이런 경험이 있다면 더 좋습니다
+RDB or NoSQL, 데이터베이스와 관련된 경험이 3년 이상 혹은 그에 준하는 실력을 보유하신 분
+Cloud hosting service(especially AWS)를 깊이 사용하고 관리해보신 분
+PostgresSQL을 이용하여 Replication, Failover, Backup, Cluster등 Database에 관해 깊이 운영해 보신 분
+투자, 암호화폐, 금융 분야에 대한 관심이 있으신 분
+투자 데이터 활용과 분석에 대한 이해와 관심이 있으신 분</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>https://career.programmers.co.kr/job_positions/7476</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>https://cryptoquant.com/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>델레오코리아</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>소프트웨어·솔루션·ASP</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2015</v>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="n">
+        <v>127189</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>서울특별시 강남구</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>서버/백엔드, 시스템/네트워크, 응용 프로그램</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>AWS Cloud9
+AWS EC2
+AWS RDS
+AWS S3
+CI/CD
+CircleCI
+Google Container Registry
+Jenkins
+GitLab
+Git</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>학력: 초대졸 이상
+경력: 3년 ~ 8년(클라우드 설계/운영 경험)
+CI / CD 환경 구축 및 운영 경험
+OS, Network, DB, Server 에 대한 전반적인 이해와 지식보유
+Container 기반 환경 구축 및 운영 경험</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>3</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>백엔드 개발(Java) 경험
+대용량 서비스 구축/운영 경험
+MSA 구조에 대한 이해
+인프라, 어플리케이션 보안에 대한 이해
+트러블 슈팅과 품질 개선 업무에 대한 흥미
+Jenkins, Gitlab 등 CI Tool 사용 경험</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>https://career.programmers.co.kr/job_positions/6080</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>https://www.deleo.co.kr/#main</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>옵틱라이프</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>가방, 시계, 안경 및 기타 생활용품 도매업</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>4</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2018</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>서울특별시 노원구</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>서버/백엔드, 웹 풀스택</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Ruby on Rails
+CSS
+HTML
+JavaScript
+Vue.js
+Git
+AWS EC2</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>자격조건
+- 3년 이상 웹개발 경험
+- 데이터베이스에 대한 기본적 지식이 있는 분
+- AWS 사용에 익숙하며, 네트워크 및 클라우드 지식이 있는 분
+- Cloud 기반 환경에서 1년 이상 서비스 설계 및 구축, 운영 경험이 있는 분
+- RESTful API 설계 경험이 있는 분
+- 다른 직군의 팀원에게 자신의 의견을 명료하게 전달하고 원활하게 의사소통 할 수 있는 능력을 가지신 분
+- 플랫한 조직문화에 빠르게 적응해 모든 팀원과 수평적이고 효율적인 의사소통을 하실 수 있는 분</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>3</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>우대사항
+- 웹 개발 프로세스(설계, 구현, 테스트, 배포, 운영)에 대한 이해
+- Ruby on Rails를 이용한 웹 어플리케이션 개발 경험이 있으신 분
+- 웹 프론트에 대한 이해가 있으신 분 (HTML, CSS, JS, Vue.js)
+- 비즈니스를 고려해서 상황에 따라 최선의 기술을 선택할 수 있는 분</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>https://career.programmers.co.kr/job_positions/3842</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>http://www.opticlife.co.kr</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
